--- a/teaching/traditional_assets/database/data/thailand/thailand_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/thailand/thailand_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.045</v>
+        <v>-0.0319</v>
       </c>
       <c r="E2">
-        <v>-0.1845</v>
+        <v>-0.112</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,91 +603,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00423794154614193</v>
+        <v>0.006069713232195485</v>
       </c>
       <c r="J2">
-        <v>0.003596682887610561</v>
+        <v>0.005160929575373906</v>
       </c>
       <c r="K2">
-        <v>44.752</v>
+        <v>50.671</v>
       </c>
       <c r="L2">
-        <v>0.01511687609782462</v>
+        <v>0.0227422062242489</v>
       </c>
       <c r="M2">
-        <v>66.42</v>
+        <v>48.0405</v>
       </c>
       <c r="N2">
-        <v>0.06314888762122077</v>
+        <v>0.05129791777896423</v>
       </c>
       <c r="O2">
-        <v>1.484179478012156</v>
+        <v>0.9480866767973792</v>
       </c>
       <c r="P2">
-        <v>66.42</v>
+        <v>39.8505</v>
       </c>
       <c r="Q2">
-        <v>0.06314888762122077</v>
+        <v>0.04255258942872397</v>
       </c>
       <c r="R2">
-        <v>1.484179478012156</v>
+        <v>0.7864557636517929</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>8.19</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.1704811565241827</v>
       </c>
       <c r="U2">
-        <v>151.08</v>
+        <v>214.43</v>
       </c>
       <c r="V2">
-        <v>0.1436394751853965</v>
+        <v>0.228969567538708</v>
       </c>
       <c r="W2">
-        <v>0.01163766343946502</v>
+        <v>0.03878787878787879</v>
       </c>
       <c r="X2">
-        <v>0.05608571031858607</v>
+        <v>0.04367140509417518</v>
       </c>
       <c r="Y2">
-        <v>-0.04444804687912106</v>
+        <v>-0.00488352630629639</v>
       </c>
       <c r="Z2">
-        <v>1.469067415036835</v>
+        <v>1.292689685220211</v>
       </c>
       <c r="AA2">
-        <v>0.004681004635948883</v>
+        <v>0.007245392021935903</v>
       </c>
       <c r="AB2">
-        <v>0.05109752558040614</v>
+        <v>0.03886155067512603</v>
       </c>
       <c r="AC2">
-        <v>-0.04828671761082697</v>
+        <v>-0.03161615865319013</v>
       </c>
       <c r="AD2">
-        <v>739.481</v>
+        <v>592.059</v>
       </c>
       <c r="AE2">
-        <v>29.26998923400716</v>
+        <v>36.94657367937263</v>
       </c>
       <c r="AF2">
-        <v>768.7509892340071</v>
+        <v>629.0055736793727</v>
       </c>
       <c r="AG2">
-        <v>617.670989234007</v>
+        <v>414.5755736793727</v>
       </c>
       <c r="AH2">
-        <v>0.4222628170153352</v>
+        <v>0.401790695769313</v>
       </c>
       <c r="AI2">
-        <v>0.3672346363259924</v>
+        <v>0.3611434579901994</v>
       </c>
       <c r="AJ2">
-        <v>0.3699800674688029</v>
+        <v>0.3068485447859608</v>
       </c>
       <c r="AK2">
-        <v>0.3180148355495976</v>
+        <v>0.271447786387767</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>40.1891847826087</v>
+        <v>28.31057237125233</v>
       </c>
       <c r="AP2">
-        <v>33.56907550184821</v>
+        <v>19.82382124417217</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.045</v>
+        <v>-0.03759999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -728,91 +728,88 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.05362828636991553</v>
+        <v>0.07682394141435216</v>
       </c>
       <c r="J3">
-        <v>0.05362828636991553</v>
+        <v>0.07682394141435216</v>
       </c>
       <c r="K3">
-        <v>-3.34</v>
+        <v>-0.234</v>
       </c>
       <c r="L3">
-        <v>-0.08146341463414634</v>
+        <v>-0.004795081967213116</v>
       </c>
       <c r="M3">
-        <v>1.14</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.03689320388349514</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0.341317365269461</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.14</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.03689320388349514</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0.341317365269461</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>8.859999999999999</v>
+        <v>26.2</v>
       </c>
       <c r="V3">
-        <v>0.2867313915857605</v>
+        <v>0.7443181818181818</v>
       </c>
       <c r="W3">
-        <v>-0.04222503160556258</v>
+        <v>-0.002969543147208122</v>
       </c>
       <c r="X3">
-        <v>0.05335116281142428</v>
+        <v>0.04993314633156976</v>
       </c>
       <c r="Y3">
-        <v>-0.09557619441698686</v>
+        <v>-0.05290268947877788</v>
       </c>
       <c r="Z3">
-        <v>0.4986851661183314</v>
+        <v>0.6114908276710392</v>
       </c>
       <c r="AA3">
-        <v>0.02674363089702277</v>
+        <v>0.04697713552041363</v>
       </c>
       <c r="AB3">
-        <v>0.05009660703929299</v>
+        <v>0.04256147696623012</v>
       </c>
       <c r="AC3">
-        <v>-0.02335297614227022</v>
+        <v>0.004415658554183501</v>
       </c>
       <c r="AD3">
-        <v>0.5600000000000001</v>
+        <v>15.1</v>
       </c>
       <c r="AE3">
-        <v>5.406201294167315</v>
+        <v>9.304958294898078</v>
       </c>
       <c r="AF3">
-        <v>5.966201294167314</v>
+        <v>24.40495829489808</v>
       </c>
       <c r="AG3">
-        <v>-2.893798705832685</v>
+        <v>-1.795041705101919</v>
       </c>
       <c r="AH3">
-        <v>0.1618339043548607</v>
+        <v>0.4094451031096021</v>
       </c>
       <c r="AI3">
-        <v>0.0703842003425703</v>
+        <v>0.2428234259178529</v>
       </c>
       <c r="AJ3">
-        <v>-0.1033270694385589</v>
+        <v>-0.05373578644389672</v>
       </c>
       <c r="AK3">
-        <v>-0.0381233503520752</v>
+        <v>-0.02415776478842557</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -821,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.1707317073170732</v>
+        <v>2.691622103386809</v>
       </c>
       <c r="AP3">
-        <v>-0.8822557029977699</v>
+        <v>-0.3199717834406273</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +841,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.17</v>
+        <v>0.0993</v>
+      </c>
+      <c r="E4">
+        <v>-0.146</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,16 +853,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0002391103927866785</v>
+        <v>0.0002493408644430454</v>
       </c>
       <c r="J4">
-        <v>0.0002018209471263757</v>
+        <v>0.0001965956815800935</v>
       </c>
       <c r="K4">
-        <v>0.551</v>
+        <v>0.445</v>
       </c>
       <c r="L4">
-        <v>0.0002166135943704053</v>
+        <v>0.0002396080120611673</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -886,55 +886,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>15</v>
+        <v>12.9</v>
       </c>
       <c r="V4">
-        <v>0.8241758241758242</v>
+        <v>0.6972972972972973</v>
       </c>
       <c r="W4">
-        <v>0.01281395348837209</v>
+        <v>0.009694989106753813</v>
       </c>
       <c r="X4">
-        <v>0.05108318190459131</v>
+        <v>0.03786593556048816</v>
       </c>
       <c r="Y4">
-        <v>-0.03826922841621921</v>
+        <v>-0.02817094645373434</v>
       </c>
       <c r="Z4">
-        <v>93.78776540225071</v>
+        <v>58.10900906862167</v>
       </c>
       <c r="AA4">
-        <v>0.01892833564234857</v>
+        <v>0.01142398024378951</v>
       </c>
       <c r="AB4">
-        <v>0.04950185174647792</v>
+        <v>0.03669826538521492</v>
       </c>
       <c r="AC4">
-        <v>-0.03057351610412935</v>
+        <v>-0.02527428514142541</v>
       </c>
       <c r="AD4">
-        <v>0.381</v>
+        <v>1.47</v>
       </c>
       <c r="AE4">
-        <v>1.388874469342629</v>
+        <v>0.6796207327818801</v>
       </c>
       <c r="AF4">
-        <v>1.769874469342629</v>
+        <v>2.14962073278188</v>
       </c>
       <c r="AG4">
-        <v>-13.23012553065737</v>
+        <v>-10.75037926721812</v>
       </c>
       <c r="AH4">
-        <v>0.08862722056964889</v>
+        <v>0.1040997682523677</v>
       </c>
       <c r="AI4">
-        <v>0.0370500129841975</v>
+        <v>0.04568837536418502</v>
       </c>
       <c r="AJ4">
-        <v>-2.662064326225797</v>
+        <v>-1.387213598949772</v>
       </c>
       <c r="AK4">
-        <v>-0.4037282945052054</v>
+        <v>-0.3148023034088431</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.4300225733634311</v>
+        <v>2.454090150250417</v>
       </c>
       <c r="AP4">
-        <v>-14.93242159216408</v>
+        <v>-17.94721079669135</v>
       </c>
     </row>
     <row r="5">
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.016</v>
+        <v>0.0417</v>
       </c>
       <c r="E5">
-        <v>-0.34</v>
+        <v>-0.092</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -978,34 +978,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03791420397766125</v>
+        <v>0.02469621348323327</v>
       </c>
       <c r="J5">
-        <v>0.03210859149358188</v>
+        <v>0.01966925199552595</v>
       </c>
       <c r="K5">
-        <v>0.8120000000000001</v>
+        <v>5.83</v>
       </c>
       <c r="L5">
-        <v>0.02498461538461539</v>
+        <v>0.1450248756218905</v>
       </c>
       <c r="M5">
-        <v>1.15</v>
+        <v>0.111</v>
       </c>
       <c r="N5">
-        <v>0.023</v>
+        <v>0.001764705882352941</v>
       </c>
       <c r="O5">
-        <v>1.416256157635468</v>
+        <v>0.01903945111492281</v>
       </c>
       <c r="P5">
-        <v>1.15</v>
+        <v>0.111</v>
       </c>
       <c r="Q5">
-        <v>0.023</v>
+        <v>0.001764705882352941</v>
       </c>
       <c r="R5">
-        <v>1.416256157635468</v>
+        <v>0.01903945111492281</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1014,55 +1014,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>25.6</v>
+        <v>48</v>
       </c>
       <c r="V5">
-        <v>0.512</v>
+        <v>0.7631160572337043</v>
       </c>
       <c r="W5">
-        <v>0.007602996254681649</v>
+        <v>0.05173025732031943</v>
       </c>
       <c r="X5">
-        <v>0.04979419542906501</v>
+        <v>0.03775868100390391</v>
       </c>
       <c r="Y5">
-        <v>-0.04219119917438335</v>
+        <v>0.01397157631641553</v>
       </c>
       <c r="Z5">
-        <v>0.4627062871722399</v>
+        <v>0.502273593335142</v>
       </c>
       <c r="AA5">
-        <v>0.01485684715632543</v>
+        <v>0.009879345878007231</v>
       </c>
       <c r="AB5">
-        <v>0.0491151065003631</v>
+        <v>0.03664812729245907</v>
       </c>
       <c r="AC5">
-        <v>-0.03425825934403767</v>
+        <v>-0.02676878141445184</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AE5">
-        <v>2.138941853630046</v>
+        <v>3.736061089870113</v>
       </c>
       <c r="AF5">
-        <v>2.138941853630046</v>
+        <v>6.986061089870113</v>
       </c>
       <c r="AG5">
-        <v>-23.46105814636996</v>
+        <v>-41.01393891012989</v>
       </c>
       <c r="AH5">
-        <v>0.04102388306296491</v>
+        <v>0.09996358330864254</v>
       </c>
       <c r="AI5">
-        <v>0.01862557960832024</v>
+        <v>0.05731632499567845</v>
       </c>
       <c r="AJ5">
-        <v>-0.8840238723821203</v>
+        <v>-1.873975346304459</v>
       </c>
       <c r="AK5">
-        <v>-0.2629015725539512</v>
+        <v>-0.5550971090506943</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1.867816091954023</v>
       </c>
       <c r="AP5">
-        <v>-14.13316755805419</v>
+        <v>-23.57122925869534</v>
       </c>
     </row>
     <row r="6">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KGI Securities (Thailand) Public Company Limited (SET:KGI)</t>
+          <t>AEC Securities Public Company Limited (SET:AEC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1093,104 +1093,95 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D6">
-        <v>0.067</v>
-      </c>
-      <c r="E6">
-        <v>0.0901</v>
-      </c>
       <c r="G6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I6">
-        <v>0.02460962738515552</v>
+        <v>-0.1837853962629008</v>
       </c>
       <c r="J6">
-        <v>0.019693411798469</v>
+        <v>-0.1837853962629008</v>
       </c>
       <c r="K6">
-        <v>34.4</v>
+        <v>-7.28</v>
       </c>
       <c r="L6">
-        <v>0.3115942028985507</v>
+        <v>3.935135135135135</v>
       </c>
       <c r="M6">
-        <v>25.1</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.08462575859743762</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.7296511627906977</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>25.1</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.08462575859743762</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.7296511627906977</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>13</v>
+        <v>1.22</v>
       </c>
       <c r="V6">
-        <v>0.04383007417397167</v>
+        <v>0.05020576131687243</v>
       </c>
       <c r="W6">
-        <v>0.1941309255079007</v>
+        <v>-0.3433962264150944</v>
       </c>
       <c r="X6">
-        <v>0.06300147105345189</v>
+        <v>0.03683375626311151</v>
       </c>
       <c r="Y6">
-        <v>0.1311294544544488</v>
+        <v>-0.3802299826782059</v>
       </c>
       <c r="Z6">
-        <v>0.274429927598987</v>
+        <v>-0.0467585163003529</v>
       </c>
       <c r="AA6">
-        <v>0.005404461574030885</v>
+        <v>0.008593532446925662</v>
       </c>
       <c r="AB6">
-        <v>0.05183117102851329</v>
+        <v>0.03728450208246037</v>
       </c>
       <c r="AC6">
-        <v>-0.04642670945448241</v>
+        <v>-0.0286909696355347</v>
       </c>
       <c r="AD6">
-        <v>170.9</v>
+        <v>0.509</v>
       </c>
       <c r="AE6">
-        <v>7.315485683394151</v>
+        <v>1.114985084568167</v>
       </c>
       <c r="AF6">
-        <v>178.2154856833941</v>
+        <v>1.623985084568167</v>
       </c>
       <c r="AG6">
-        <v>165.2154856833941</v>
+        <v>0.4039850845681674</v>
       </c>
       <c r="AH6">
-        <v>0.3753362960074723</v>
+        <v>0.06264411429301743</v>
       </c>
       <c r="AI6">
-        <v>0.4758561194290721</v>
+        <v>0.0681659713437318</v>
       </c>
       <c r="AJ6">
-        <v>0.3577521560129332</v>
+        <v>0.01635303305054716</v>
       </c>
       <c r="AK6">
-        <v>0.4570080459238904</v>
+        <v>0.01787229477708201</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1199,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>40.88516746411484</v>
+        <v>0.9040852575488456</v>
       </c>
       <c r="AP6">
-        <v>39.52523580942444</v>
+        <v>0.7175578766752529</v>
       </c>
     </row>
     <row r="7">
@@ -1222,10 +1213,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.062</v>
+        <v>-0.0296</v>
       </c>
       <c r="E7">
-        <v>-0.174</v>
+        <v>-0.0978</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1234,34 +1225,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02059585663902701</v>
+        <v>0.02663663217881437</v>
       </c>
       <c r="J7">
-        <v>0.01651017450900864</v>
+        <v>0.02140115619884051</v>
       </c>
       <c r="K7">
-        <v>9.869999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="L7">
-        <v>0.1672881355932203</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>8.67</v>
       </c>
       <c r="N7">
-        <v>0.08994276369582993</v>
+        <v>0.05670372792674951</v>
       </c>
       <c r="O7">
-        <v>1.114488348530902</v>
+        <v>0.7410256410256411</v>
       </c>
       <c r="P7">
-        <v>11</v>
+        <v>8.67</v>
       </c>
       <c r="Q7">
-        <v>0.08994276369582993</v>
+        <v>0.05670372792674951</v>
       </c>
       <c r="R7">
-        <v>1.114488348530902</v>
+        <v>0.7410256410256411</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1270,55 +1261,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>19</v>
+        <v>30.6</v>
       </c>
       <c r="V7">
-        <v>0.1553556827473426</v>
+        <v>0.2001308044473512</v>
       </c>
       <c r="W7">
-        <v>0.06916608269096006</v>
+        <v>0.07857622565480188</v>
       </c>
       <c r="X7">
-        <v>0.05601384975860556</v>
+        <v>0.04309700504628078</v>
       </c>
       <c r="Y7">
-        <v>0.0131522329323545</v>
+        <v>0.0354792206085211</v>
       </c>
       <c r="Z7">
-        <v>0.2541195117084422</v>
+        <v>0.3565535525139997</v>
       </c>
       <c r="AA7">
-        <v>0.004195557484450446</v>
+        <v>0.00763065827060359</v>
       </c>
       <c r="AB7">
-        <v>0.05068344017062878</v>
+        <v>0.03868670266376138</v>
       </c>
       <c r="AC7">
-        <v>-0.04648788268617833</v>
+        <v>-0.03105604439315779</v>
       </c>
       <c r="AD7">
-        <v>34.8</v>
+        <v>51.6</v>
       </c>
       <c r="AE7">
-        <v>2.574222291487033</v>
+        <v>4.419055398087468</v>
       </c>
       <c r="AF7">
-        <v>37.37422229148703</v>
+        <v>56.01905539808747</v>
       </c>
       <c r="AG7">
-        <v>18.37422229148703</v>
+        <v>25.41905539808747</v>
       </c>
       <c r="AH7">
-        <v>0.2340654725298112</v>
+        <v>0.2681376061716594</v>
       </c>
       <c r="AI7">
-        <v>0.20064087146209</v>
+        <v>0.2752521393562536</v>
       </c>
       <c r="AJ7">
-        <v>0.1306154176094489</v>
+        <v>0.1425481721027561</v>
       </c>
       <c r="AK7">
-        <v>0.1098449123826662</v>
+        <v>0.1469997354517622</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1327,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>20.11560693641619</v>
+        <v>20.72289156626506</v>
       </c>
       <c r="AP7">
-        <v>10.62093774074395</v>
+        <v>10.20845598316766</v>
       </c>
     </row>
     <row r="8">
@@ -1341,7 +1332,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Capital Nomura Securities Public Company Limited (SET:CNS)</t>
+          <t>KGI Securities (Thailand) Public Company Limited (SET:KGI)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1350,10 +1341,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.005330000000000001</v>
+        <v>-0.009010000000000001</v>
       </c>
       <c r="E8">
-        <v>-0.18</v>
+        <v>-0.08779999999999999</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1362,34 +1353,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02671465501327987</v>
+        <v>0.0426563754600469</v>
       </c>
       <c r="J8">
-        <v>0.02180462673578579</v>
+        <v>0.03499506592018321</v>
       </c>
       <c r="K8">
-        <v>3.83</v>
+        <v>12.5</v>
       </c>
       <c r="L8">
-        <v>0.09341463414634146</v>
+        <v>0.1675603217158177</v>
       </c>
       <c r="M8">
-        <v>5.48</v>
+        <v>21.5</v>
       </c>
       <c r="N8">
-        <v>0.03052924791086351</v>
+        <v>0.08528361761205872</v>
       </c>
       <c r="O8">
-        <v>1.430809399477807</v>
+        <v>1.72</v>
       </c>
       <c r="P8">
-        <v>5.48</v>
+        <v>21.5</v>
       </c>
       <c r="Q8">
-        <v>0.03052924791086351</v>
+        <v>0.08528361761205872</v>
       </c>
       <c r="R8">
-        <v>1.430809399477807</v>
+        <v>1.72</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1398,55 +1389,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>12.3</v>
+        <v>32.8</v>
       </c>
       <c r="V8">
-        <v>0.06852367688022284</v>
+        <v>0.1301071003570012</v>
       </c>
       <c r="W8">
-        <v>0.02343941248470012</v>
+        <v>0.06371049949031601</v>
       </c>
       <c r="X8">
-        <v>0.05503417401696563</v>
+        <v>0.04367140509417518</v>
       </c>
       <c r="Y8">
-        <v>-0.03159476153226551</v>
+        <v>0.02003909439614084</v>
       </c>
       <c r="Z8">
-        <v>0.173513028256133</v>
+        <v>0.2070403878781426</v>
       </c>
       <c r="AA8">
-        <v>0.003783386814920833</v>
+        <v>0.007245392021935903</v>
       </c>
       <c r="AB8">
-        <v>0.05148279979932843</v>
+        <v>0.03886155067512603</v>
       </c>
       <c r="AC8">
-        <v>-0.04769941298440759</v>
+        <v>-0.03161615865319013</v>
       </c>
       <c r="AD8">
-        <v>44.1</v>
+        <v>92.2</v>
       </c>
       <c r="AE8">
-        <v>3.323495722277626</v>
+        <v>7.089171953402506</v>
       </c>
       <c r="AF8">
-        <v>47.42349572227763</v>
+        <v>99.2891719534025</v>
       </c>
       <c r="AG8">
-        <v>35.12349572227762</v>
+        <v>66.4891719534025</v>
       </c>
       <c r="AH8">
-        <v>0.2089845107106816</v>
+        <v>0.2825618427609635</v>
       </c>
       <c r="AI8">
-        <v>0.217017834011535</v>
+        <v>0.3531045355112618</v>
       </c>
       <c r="AJ8">
-        <v>0.1636516803720659</v>
+        <v>0.2086987813984066</v>
       </c>
       <c r="AK8">
-        <v>0.1703176236018162</v>
+        <v>0.2676814429168264</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1455,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>25.05681818181818</v>
+        <v>20.04347826086957</v>
       </c>
       <c r="AP8">
-        <v>19.95653166038501</v>
+        <v>14.45416781595707</v>
       </c>
     </row>
     <row r="9">
@@ -1469,7 +1460,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Country Group Holdings Public Company Limited (SET:CGH)</t>
+          <t>Seamico Capital Public Company Limited (SET:ZMICO)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1478,10 +1469,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.059</v>
+        <v>-0.00653</v>
       </c>
       <c r="E9">
-        <v>-0.07200000000000001</v>
+        <v>-0.106</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1490,91 +1481,88 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01629680251115182</v>
+        <v>0.01991597232106471</v>
       </c>
       <c r="J9">
-        <v>0.01375866220515966</v>
+        <v>0.01790999532554953</v>
       </c>
       <c r="K9">
-        <v>1.95</v>
+        <v>2.49</v>
       </c>
       <c r="L9">
-        <v>0.07442748091603053</v>
+        <v>0.3272010512483575</v>
       </c>
       <c r="M9">
-        <v>1.65</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.01375</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>0.8461538461538461</v>
+        <v>-0</v>
       </c>
       <c r="P9">
-        <v>1.65</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.01375</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.8461538461538461</v>
+        <v>-0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>26.4</v>
+        <v>15.9</v>
       </c>
       <c r="V9">
-        <v>0.22</v>
+        <v>0.2699490662139219</v>
       </c>
       <c r="W9">
-        <v>0.01046137339055794</v>
+        <v>0.03058968058968059</v>
       </c>
       <c r="X9">
-        <v>0.05615757087856658</v>
+        <v>0.03688553959509072</v>
       </c>
       <c r="Y9">
-        <v>-0.04569619748800864</v>
+        <v>-0.006295859005410132</v>
       </c>
       <c r="Z9">
-        <v>0.1336052224283956</v>
+        <v>0.1036894967696298</v>
       </c>
       <c r="AA9">
-        <v>0.001838229124237517</v>
+        <v>0.001857078402452652</v>
       </c>
       <c r="AB9">
-        <v>0.05071225136148385</v>
+        <v>0.03656428735957714</v>
       </c>
       <c r="AC9">
-        <v>-0.04887402223724633</v>
+        <v>-0.03470720895712449</v>
       </c>
       <c r="AD9">
-        <v>35.9</v>
+        <v>3.53</v>
       </c>
       <c r="AE9">
-        <v>1.500118871039112</v>
+        <v>0.5521972531834878</v>
       </c>
       <c r="AF9">
-        <v>37.40011887103911</v>
+        <v>4.082197253183487</v>
       </c>
       <c r="AG9">
-        <v>11.00011887103911</v>
+        <v>-11.81780274681651</v>
       </c>
       <c r="AH9">
-        <v>0.2376117574706645</v>
+        <v>0.06481509745957854</v>
       </c>
       <c r="AI9">
-        <v>0.1648307592659122</v>
+        <v>0.04747723812131753</v>
       </c>
       <c r="AJ9">
-        <v>0.08397029686566923</v>
+        <v>-0.2510036369642338</v>
       </c>
       <c r="AK9">
-        <v>0.05486340323874993</v>
+        <v>-0.1686277429933133</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1583,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>49.38101788170564</v>
+        <v>13.47328244274809</v>
       </c>
       <c r="AP9">
-        <v>15.13083751174569</v>
+        <v>-45.1061173542615</v>
       </c>
     </row>
     <row r="10">
@@ -1597,7 +1585,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AEC Securities Public Company Limited (SET:AEC)</t>
+          <t>Country Group Holdings Public Company Limited (SET:CGH)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1606,7 +1594,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.04559999999999999</v>
+        <v>-0.0644</v>
+      </c>
+      <c r="E10">
+        <v>-0.211</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1615,25 +1606,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.03314583821356824</v>
+        <v>0.02298075143747363</v>
       </c>
       <c r="J10">
-        <v>0.03314583821356824</v>
+        <v>0.0190382297461689</v>
       </c>
       <c r="K10">
-        <v>-9.33</v>
+        <v>3.65</v>
       </c>
       <c r="L10">
-        <v>-0.8638888888888888</v>
+        <v>0.1042857142857143</v>
       </c>
       <c r="M10">
-        <v>-0</v>
+        <v>8.19</v>
       </c>
       <c r="N10">
-        <v>-0</v>
+        <v>0.08892508143322475</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.243835616438356</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1642,61 +1633,64 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>8.19</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>1.75</v>
+        <v>33.4</v>
       </c>
       <c r="V10">
-        <v>0.1296296296296296</v>
+        <v>0.3626492942453854</v>
       </c>
       <c r="W10">
-        <v>-0.3039087947882737</v>
+        <v>0.0193223928004235</v>
       </c>
       <c r="X10">
-        <v>0.08317582372213669</v>
+        <v>0.04502333098226342</v>
       </c>
       <c r="Y10">
-        <v>-0.3870846185104103</v>
+        <v>-0.02570093818183992</v>
       </c>
       <c r="Z10">
-        <v>0.2178292220401848</v>
+        <v>0.1739317386567738</v>
       </c>
       <c r="AA10">
-        <v>0.007220132151931399</v>
+        <v>0.003311352400698266</v>
       </c>
       <c r="AB10">
-        <v>0.05643809575117892</v>
+        <v>0.03924708368827089</v>
       </c>
       <c r="AC10">
-        <v>-0.04921796359924752</v>
+        <v>-0.03593573128757262</v>
       </c>
       <c r="AD10">
-        <v>19</v>
+        <v>39.4</v>
       </c>
       <c r="AE10">
-        <v>0.6201247364673151</v>
+        <v>2.828368498442114</v>
       </c>
       <c r="AF10">
-        <v>19.62012473646731</v>
+        <v>42.22836849844212</v>
       </c>
       <c r="AG10">
-        <v>17.87012473646731</v>
+        <v>8.828368498442117</v>
       </c>
       <c r="AH10">
-        <v>0.5923928394769702</v>
+        <v>0.3143667191858425</v>
       </c>
       <c r="AI10">
-        <v>0.4358078715089515</v>
+        <v>0.2021188831461009</v>
       </c>
       <c r="AJ10">
-        <v>0.5696542454513595</v>
+        <v>0.08747162596389724</v>
       </c>
       <c r="AK10">
-        <v>0.4129899057445213</v>
+        <v>0.05029596397416793</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1705,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>39.41908713692946</v>
+        <v>28.75912408759124</v>
       </c>
       <c r="AP10">
-        <v>37.07494758603178</v>
+        <v>6.444064597403004</v>
       </c>
     </row>
     <row r="11">
@@ -1719,7 +1713,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Seamico Securities Public Company Limited (SET:ZMICO)</t>
+          <t>Maybank Kim Eng Securities (Thailand) Public Company Limited (SET:MBKET)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1727,95 +1721,104 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D11">
+        <v>-0.102</v>
+      </c>
+      <c r="E11">
+        <v>-0.208</v>
+      </c>
       <c r="G11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.006610734436926667</v>
+        <v>0.02204279173362637</v>
       </c>
       <c r="J11">
-        <v>-0.006610734436926667</v>
+        <v>0.01764767411356794</v>
       </c>
       <c r="K11">
-        <v>-3.19</v>
+        <v>13.2</v>
       </c>
       <c r="L11">
-        <v>2.9</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>5.06</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.03006535947712418</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>5.06</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.03006535947712418</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
-        <v>12.8</v>
+        <v>8.41</v>
       </c>
       <c r="V11">
-        <v>0.3047619047619048</v>
+        <v>0.04997029114676173</v>
       </c>
       <c r="W11">
-        <v>-0.04754098360655738</v>
+        <v>0.09684519442406456</v>
       </c>
       <c r="X11">
-        <v>0.05117576749834027</v>
+        <v>0.06801958838313987</v>
       </c>
       <c r="Y11">
-        <v>-0.09871675110489765</v>
+        <v>0.02882560604092468</v>
       </c>
       <c r="Z11">
-        <v>-0.01383497424569414</v>
+        <v>0.1648181537072094</v>
       </c>
       <c r="AA11">
-        <v>9.145934068000376e-05</v>
+        <v>0.002908657064624781</v>
       </c>
       <c r="AB11">
-        <v>0.04952815821576022</v>
+        <v>0.04282002226376148</v>
       </c>
       <c r="AC11">
-        <v>-0.04943669887508022</v>
+        <v>-0.0399113651991367</v>
       </c>
       <c r="AD11">
-        <v>4.24</v>
+        <v>255.8</v>
       </c>
       <c r="AE11">
-        <v>0.008640960596903323</v>
+        <v>6.46620985029187</v>
       </c>
       <c r="AF11">
-        <v>4.248640960596903</v>
+        <v>262.2662098502919</v>
       </c>
       <c r="AG11">
-        <v>-8.551359039403097</v>
+        <v>253.8562098502919</v>
       </c>
       <c r="AH11">
-        <v>0.09186520668178504</v>
+        <v>0.6091193499403541</v>
       </c>
       <c r="AI11">
-        <v>0.04960546849250664</v>
+        <v>0.6516477742264347</v>
       </c>
       <c r="AJ11">
-        <v>-0.2556563972053977</v>
+        <v>0.6013324071208528</v>
       </c>
       <c r="AK11">
-        <v>-0.117385292664944</v>
+        <v>0.644213194728579</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1824,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>471.1111111111111</v>
+        <v>87.60273972602741</v>
       </c>
       <c r="AP11">
-        <v>-950.151004378122</v>
+        <v>86.93705816790818</v>
       </c>
     </row>
     <row r="12">
@@ -1847,10 +1850,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.06909999999999999</v>
+        <v>-0.0472</v>
       </c>
       <c r="E12">
-        <v>-0.189</v>
+        <v>-0.196</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1859,34 +1862,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03828616032363591</v>
+        <v>0.03321371012189125</v>
       </c>
       <c r="J12">
-        <v>0.03035842821314391</v>
+        <v>0.02699317627702856</v>
       </c>
       <c r="K12">
-        <v>1.46</v>
+        <v>1.92</v>
       </c>
       <c r="L12">
-        <v>0.09125</v>
+        <v>0.1049180327868852</v>
       </c>
       <c r="M12">
-        <v>1.3</v>
+        <v>2.78</v>
       </c>
       <c r="N12">
-        <v>0.0501930501930502</v>
+        <v>0.1010909090909091</v>
       </c>
       <c r="O12">
-        <v>0.8904109589041096</v>
+        <v>1.447916666666667</v>
       </c>
       <c r="P12">
-        <v>1.3</v>
+        <v>2.78</v>
       </c>
       <c r="Q12">
-        <v>0.0501930501930502</v>
+        <v>0.1010909090909091</v>
       </c>
       <c r="R12">
-        <v>0.8904109589041096</v>
+        <v>1.447916666666667</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1895,55 +1898,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="V12">
-        <v>0.07258687258687259</v>
+        <v>0.07236363636363637</v>
       </c>
       <c r="W12">
-        <v>0.03067226890756302</v>
+        <v>0.03878787878787879</v>
       </c>
       <c r="X12">
-        <v>0.115088123285826</v>
+        <v>0.1038327029654634</v>
       </c>
       <c r="Y12">
-        <v>-0.08441585437826296</v>
+        <v>-0.06504482417758461</v>
       </c>
       <c r="Z12">
-        <v>0.1701817943661018</v>
+        <v>0.1553270223197074</v>
       </c>
       <c r="AA12">
-        <v>0.005166451787447321</v>
+        <v>0.00419276969406181</v>
       </c>
       <c r="AB12">
-        <v>0.05476918651684014</v>
+        <v>0.04472012148291791</v>
       </c>
       <c r="AC12">
-        <v>-0.04960273472939282</v>
+        <v>-0.04052735178885609</v>
       </c>
       <c r="AD12">
-        <v>71.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="AE12">
-        <v>1.467107174109127</v>
+        <v>0.7559455238469511</v>
       </c>
       <c r="AF12">
-        <v>72.56710717410913</v>
+        <v>89.95594552384695</v>
       </c>
       <c r="AG12">
-        <v>70.68710717410913</v>
+        <v>87.96594552384695</v>
       </c>
       <c r="AH12">
-        <v>0.7369680013630976</v>
+        <v>0.7658696639207871</v>
       </c>
       <c r="AI12">
-        <v>0.5944853519843294</v>
+        <v>0.6650794179542135</v>
       </c>
       <c r="AJ12">
-        <v>0.7318482688034923</v>
+        <v>0.761834540260007</v>
       </c>
       <c r="AK12">
-        <v>0.5881421796075698</v>
+        <v>0.6600782006090679</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1952,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>78.47682119205297</v>
+        <v>117.5230566534914</v>
       </c>
       <c r="AP12">
-        <v>78.02108959614694</v>
+        <v>115.8971614279934</v>
       </c>
     </row>
     <row r="13">
@@ -1966,7 +1969,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Maybank Kim Eng Securities (Thailand) Public Company Limited (SET:MBKET)</t>
+          <t>Finansa Public Company Limited (SET:FNS)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1975,10 +1978,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.09359999999999999</v>
+        <v>-0.0342</v>
       </c>
       <c r="E13">
-        <v>-0.259</v>
+        <v>-0.112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1987,34 +1990,34 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03046468082967428</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02429209843934812</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>7.32</v>
+        <v>6.45</v>
       </c>
       <c r="L13">
-        <v>0.107488986784141</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="M13">
-        <v>17.9</v>
+        <v>1.7295</v>
       </c>
       <c r="N13">
-        <v>0.1401722787783868</v>
+        <v>0.03948630136986301</v>
       </c>
       <c r="O13">
-        <v>2.44535519125683</v>
+        <v>0.2681395348837209</v>
       </c>
       <c r="P13">
-        <v>17.9</v>
+        <v>1.7295</v>
       </c>
       <c r="Q13">
-        <v>0.1401722787783868</v>
+        <v>0.03948630136986301</v>
       </c>
       <c r="R13">
-        <v>2.44535519125683</v>
+        <v>0.2681395348837209</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2023,188 +2026,60 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>11.9</v>
+        <v>3.01</v>
       </c>
       <c r="V13">
-        <v>0.09318715740015662</v>
+        <v>0.06872146118721462</v>
       </c>
       <c r="W13">
-        <v>0.05273775216138328</v>
+        <v>0.07271702367531004</v>
       </c>
       <c r="X13">
-        <v>0.1081635257212217</v>
+        <v>0.05453146364992349</v>
       </c>
       <c r="Y13">
-        <v>-0.05542577355983844</v>
+        <v>0.01818556002538654</v>
       </c>
       <c r="Z13">
-        <v>0.1502890660633224</v>
+        <v>0.1150269211943221</v>
       </c>
       <c r="AA13">
-        <v>0.00365083678716792</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.05459100366502322</v>
+        <v>0.04122245863657362</v>
       </c>
       <c r="AC13">
-        <v>-0.0509401668778553</v>
+        <v>-0.04122245863657362</v>
       </c>
       <c r="AD13">
-        <v>316.9</v>
+        <v>40</v>
       </c>
       <c r="AE13">
-        <v>3.526776177495906</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>320.4267761774959</v>
+        <v>40</v>
       </c>
       <c r="AG13">
-        <v>308.5267761774959</v>
+        <v>36.99</v>
       </c>
       <c r="AH13">
-        <v>0.7150359969799706</v>
+        <v>0.477326968973747</v>
       </c>
       <c r="AI13">
-        <v>0.7015721277812048</v>
+        <v>0.3051106025934401</v>
       </c>
       <c r="AJ13">
-        <v>0.707262353038044</v>
+        <v>0.4578536947642036</v>
       </c>
       <c r="AK13">
-        <v>0.6935885893127682</v>
+        <v>0.2887813256304161</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>113.9928057553957</v>
-      </c>
-      <c r="AP13">
-        <v>110.9808547401064</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Finansa Public Company Limited (SET:FNS)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>0.203</v>
-      </c>
-      <c r="E14">
-        <v>-0.262</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0.419</v>
-      </c>
-      <c r="L14">
-        <v>0.032734375</v>
-      </c>
-      <c r="M14">
-        <v>1.7</v>
-      </c>
-      <c r="N14">
-        <v>0.06746031746031746</v>
-      </c>
-      <c r="O14">
-        <v>4.05727923627685</v>
-      </c>
-      <c r="P14">
-        <v>1.7</v>
-      </c>
-      <c r="Q14">
-        <v>0.06746031746031746</v>
-      </c>
-      <c r="R14">
-        <v>4.05727923627685</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>2.59</v>
-      </c>
-      <c r="V14">
-        <v>0.1027777777777778</v>
-      </c>
-      <c r="W14">
-        <v>0.005985714285714285</v>
-      </c>
-      <c r="X14">
-        <v>0.08784859271113513</v>
-      </c>
-      <c r="Y14">
-        <v>-0.08186287842542084</v>
-      </c>
-      <c r="Z14">
-        <v>0.1383933398205212</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0.05384127821289263</v>
-      </c>
-      <c r="AC14">
-        <v>-0.05384127821289263</v>
-      </c>
-      <c r="AD14">
-        <v>41.6</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>41.6</v>
-      </c>
-      <c r="AG14">
-        <v>39.01000000000001</v>
-      </c>
-      <c r="AH14">
-        <v>0.6227544910179641</v>
-      </c>
-      <c r="AI14">
-        <v>0.3192632386799693</v>
-      </c>
-      <c r="AJ14">
-        <v>0.6075377667030057</v>
-      </c>
-      <c r="AK14">
-        <v>0.3054576775507008</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
         <v>0</v>
       </c>
     </row>
